--- a/CS481/assn3/a3.xlsx
+++ b/CS481/assn3/a3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\workspace\CollegeAssignments\CS481\assn3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F50BF-D7F7-4B02-9541-FC41C0EC347D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495AE873-160C-48C8-8F11-807FCFCE2C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25755" yWindow="12300" windowWidth="12645" windowHeight="6525" activeTab="1" xr2:uid="{1B5C5BE6-D31C-4960-86A7-C160422838DF}"/>
+    <workbookView xWindow="25755" yWindow="12300" windowWidth="12645" windowHeight="6525" activeTab="2" xr2:uid="{1B5C5BE6-D31C-4960-86A7-C160422838DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
   <si>
     <t>s12</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Winning</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>hitting</t>
   </si>
 </sst>
 </file>
@@ -115,12 +124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,1733 +449,2837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2B766-F9EB-4CCB-AFC1-EB09A473BFA4}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>4</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>5</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>6</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>7</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>8</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>9</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>10</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>11</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>12</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>13</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>14</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>15</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>16</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>17</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>18</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>19</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>20</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <f>(1/13) * (1/13)</f>
         <v>5.9171597633136102E-3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" ref="E3:L3" si="0">1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" ref="F4:M4" si="1">1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" ref="G5:N5" si="2">1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" ref="H6:O6" si="3">1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <f>1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f t="shared" ref="J7:AC18" si="4">1/13</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q7" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R8" s="3">
         <f>5/13</f>
         <v>0.38461538461538464</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T10" s="3">
         <v>0.4</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="U10" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>12</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>18</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AC17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>20</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2" t="s">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="V21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2" t="s">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="W22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="X22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2" t="s">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="X23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="Y24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2" t="s">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="Z25" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="AA26" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="AB27" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="AC28" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="AD29" s="3">
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2178,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E1AF5C-A1FC-44BC-8D85-7297D12BAE8F}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,12 +3686,24 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2600,13 +3728,27 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2631,13 +3773,27 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.25</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2662,13 +3818,27 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2693,13 +3863,27 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2724,13 +3908,27 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2755,13 +3953,27 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3229,12 +4441,217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E50532A-6F1C-497B-AFC8-CDC407A800BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.390625</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.390625</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>